--- a/testData/Output.xlsx
+++ b/testData/Output.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="67">
   <si>
     <t>Dr. K.A. Mohan</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>Dr. Shambulinga</t>
+  </si>
+  <si>
+    <t>Dr. Vijayendra R</t>
+  </si>
+  <si>
+    <t>Dr. Achuth M Baliga</t>
+  </si>
+  <si>
+    <t>Dr. Rita Mukherjee</t>
+  </si>
+  <si>
+    <t>Dr. Hemalatha Ahuja</t>
   </si>
 </sst>
 </file>
@@ -602,22 +614,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
